--- a/record.xlsx
+++ b/record.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5AD3F9-09C5-4AD9-877B-356CE4C8F1A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC6AF8F-36EE-4121-9E38-2025A734B9C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,30 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>2 work nodes</t>
+    <t>Small</t>
   </si>
   <si>
-    <t>small</t>
+    <t>Middle</t>
   </si>
   <si>
-    <t>middle</t>
+    <t>Large</t>
   </si>
   <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>1 work nodes</t>
-  </si>
-  <si>
-    <t>3 work nodes</t>
-  </si>
-  <si>
-    <t>4 work nodes</t>
+    <t>Huge</t>
   </si>
 </sst>
 </file>
@@ -193,7 +182,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>small</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -223,24 +212,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 work nodes</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 work nodes</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 work nodes</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 work nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -279,7 +269,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>middle</c:v>
+                  <c:v>Middle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -309,24 +299,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 work nodes</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 work nodes</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 work nodes</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 work nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -365,7 +356,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>large</c:v>
+                  <c:v>Large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -395,24 +386,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 work nodes</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 work nodes</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 work nodes</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 work nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -451,7 +443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>huge</c:v>
+                  <c:v>Huge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -481,24 +473,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 work nodes</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 work nodes</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 work nodes</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4 work nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1581,7 +1574,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,22 +1586,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>16.867313996</v>
@@ -1625,7 +1618,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>21.543825119999902</v>
@@ -1642,7 +1635,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>83.683331057000004</v>
@@ -1660,7 +1653,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>174.08565120099999</v>
@@ -1679,4 +1672,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D083283-62D1-4D01-8D93-AA8C85657A5D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>